--- a/MyPyliferisk/TablesMortalite.xlsx
+++ b/MyPyliferisk/TablesMortalite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\01 - Reserving\PGG\PGGenPython\RWmyPGG\myPGG1\MyPyliferisk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Dropbox\Programming\myPGG1\MyPyliferisk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D76AEA7-B4EB-4DD9-828E-75E1B4B9B6EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8ADF29-FE04-4AC6-8E6D-218A816A2B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C9A21CF-0D1A-4FD7-8F27-BF695E4B2878}"/>
+    <workbookView xWindow="5145" yWindow="2805" windowWidth="28770" windowHeight="18030" xr2:uid="{8C9A21CF-0D1A-4FD7-8F27-BF695E4B2878}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>EKF95</t>
   </si>
@@ -59,11 +61,17 @@
   <si>
     <t>GKM95</t>
   </si>
+  <si>
+    <t>EKM95000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,9 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,18 +419,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539BC84E-D534-4BB7-B55A-54B8A527FA01}">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -449,8 +459,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -478,8 +491,12 @@
       <c r="I2" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2">
+        <f>E2*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6.8435900000000001E-3</v>
       </c>
@@ -507,8 +524,12 @@
       <c r="I3">
         <v>1.5785E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J66" si="0">E3*1000</f>
+        <v>3.0963000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.1666699999999995E-4</v>
       </c>
@@ -536,8 +557,12 @@
       <c r="I4">
         <v>1.5950999999999999E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.7474399999999998E-4</v>
       </c>
@@ -565,8 +590,12 @@
       <c r="I5">
         <v>1.6006E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80510000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.4051300000000002E-4</v>
       </c>
@@ -594,8 +623,12 @@
       <c r="I6">
         <v>1.5950000000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71929999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.1461500000000001E-4</v>
       </c>
@@ -623,8 +656,12 @@
       <c r="I7">
         <v>1.5785E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.9833300000000001E-4</v>
       </c>
@@ -652,8 +689,12 @@
       <c r="I8">
         <v>1.5502999999999999E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57700000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.93333E-4</v>
       </c>
@@ -681,8 +722,12 @@
       <c r="I9">
         <v>1.5093999999999999E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52170000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.01538E-4</v>
       </c>
@@ -710,8 +755,12 @@
       <c r="I10">
         <v>1.4643E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47789999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.2499999999999998E-4</v>
       </c>
@@ -739,8 +788,12 @@
       <c r="I11">
         <v>1.4238E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44619999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.6525599999999999E-4</v>
       </c>
@@ -768,8 +821,12 @@
       <c r="I12">
         <v>1.3879999999999999E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.2294899999999998E-4</v>
       </c>
@@ -797,8 +854,12 @@
       <c r="I13">
         <v>1.3573999999999999E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42210000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5.9679500000000001E-4</v>
       </c>
@@ -826,8 +887,12 @@
       <c r="I14">
         <v>1.3324999999999999E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43080000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6.8397399999999995E-4</v>
       </c>
@@ -855,8 +920,12 @@
       <c r="I15">
         <v>1.3136999999999999E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45319999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.8025600000000001E-4</v>
       </c>
@@ -884,8 +953,12 @@
       <c r="I16">
         <v>1.3018000000000001E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49620000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8.7935900000000002E-4</v>
       </c>
@@ -913,8 +986,12 @@
       <c r="I17">
         <v>1.2968000000000001E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59109999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9.7397399999999996E-4</v>
       </c>
@@ -942,8 +1019,12 @@
       <c r="I18">
         <v>1.2995000000000001E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77150000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.05641E-3</v>
       </c>
@@ -971,8 +1052,12 @@
       <c r="I19">
         <v>1.3104E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.118974E-3</v>
       </c>
@@ -1000,8 +1085,12 @@
       <c r="I20">
         <v>1.3299E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4748999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.1553850000000001E-3</v>
       </c>
@@ -1029,8 +1118,12 @@
       <c r="I21">
         <v>1.3586E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8875999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.1614100000000001E-3</v>
       </c>
@@ -1058,8 +1151,12 @@
       <c r="I22">
         <v>1.397E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.13641E-3</v>
       </c>
@@ -1087,8 +1184,12 @@
       <c r="I23">
         <v>1.4453999999999999E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2539000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.0839739999999999E-3</v>
       </c>
@@ -1116,8 +1217,12 @@
       <c r="I24">
         <v>1.5045E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1743999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.0114099999999999E-3</v>
       </c>
@@ -1145,8 +1250,12 @@
       <c r="I25">
         <v>1.5754E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0281000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9.2833300000000004E-4</v>
       </c>
@@ -1174,8 +1283,12 @@
       <c r="I26">
         <v>1.6590999999999999E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8.4435900000000004E-4</v>
       </c>
@@ -1203,8 +1316,12 @@
       <c r="I27">
         <v>1.7566000000000001E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7.6730799999999997E-4</v>
       </c>
@@ -1232,8 +1349,12 @@
       <c r="I28">
         <v>1.8694E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5933999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7.0230800000000001E-4</v>
       </c>
@@ -1261,8 +1382,12 @@
       <c r="I29">
         <v>1.9983000000000002E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4966000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.5179500000000004E-4</v>
       </c>
@@ -1290,8 +1415,12 @@
       <c r="I30">
         <v>2.1445000000000001E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.1653800000000003E-4</v>
       </c>
@@ -1319,8 +1448,12 @@
       <c r="I31">
         <v>2.3096000000000002E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.9564100000000005E-4</v>
       </c>
@@ -1348,8 +1481,12 @@
       <c r="I32">
         <v>2.4970000000000001E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>1.327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.8756399999999995E-4</v>
       </c>
@@ -1377,8 +1514,12 @@
       <c r="I33">
         <v>2.7106999999999999E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3049999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.9153799999999996E-4</v>
       </c>
@@ -1406,8 +1547,12 @@
       <c r="I34">
         <v>2.9545000000000001E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2973999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.0782100000000003E-4</v>
       </c>
@@ -1435,8 +1580,12 @@
       <c r="I35">
         <v>3.2325000000000001E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6.3756399999999997E-4</v>
       </c>
@@ -1464,8 +1613,12 @@
       <c r="I36">
         <v>3.5482000000000001E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3178000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6.8128199999999996E-4</v>
       </c>
@@ -1493,8 +1646,12 @@
       <c r="I37">
         <v>3.9056999999999998E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3420999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.37308E-4</v>
       </c>
@@ -1522,8 +1679,12 @@
       <c r="I38">
         <v>4.3087000000000004E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3734999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8.0192299999999996E-4</v>
       </c>
@@ -1551,8 +1712,12 @@
       <c r="I39">
         <v>4.7606000000000002E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4105999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8.7140999999999998E-4</v>
       </c>
@@ -1580,8 +1745,12 @@
       <c r="I40">
         <v>5.2655000000000002E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9.4371799999999997E-4</v>
       </c>
@@ -1609,8 +1778,12 @@
       <c r="I41">
         <v>5.8269000000000003E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5394000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.020256E-3</v>
       </c>
@@ -1638,8 +1811,12 @@
       <c r="I42">
         <v>6.4473999999999998E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="2">
+        <f t="shared" si="0"/>
+        <v>1.623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.104872E-3</v>
       </c>
@@ -1667,8 +1844,12 @@
       <c r="I43">
         <v>7.1294000000000001E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.202949E-3</v>
       </c>
@@ -1696,8 +1877,12 @@
       <c r="I44">
         <v>7.8756E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="2">
+        <f t="shared" si="0"/>
+        <v>1.843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.319359E-3</v>
       </c>
@@ -1725,8 +1910,12 @@
       <c r="I45">
         <v>8.6884000000000006E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9837000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.45641E-3</v>
       </c>
@@ -1754,8 +1943,12 @@
       <c r="I46">
         <v>9.5703999999999997E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1484000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.613462E-3</v>
       </c>
@@ -1783,8 +1976,12 @@
       <c r="I47">
         <v>1.05241E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="2">
+        <f t="shared" si="0"/>
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.788333E-3</v>
       </c>
@@ -1812,8 +2009,12 @@
       <c r="I48">
         <v>1.1552099999999999E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5612999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.98E-3</v>
       </c>
@@ -1841,8 +2042,12 @@
       <c r="I49">
         <v>1.2657099999999999E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8134000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.1921789999999998E-3</v>
       </c>
@@ -1870,8 +2075,12 @@
       <c r="I50">
         <v>1.38417E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0975999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.430897E-3</v>
       </c>
@@ -1899,8 +2108,12 @@
       <c r="I51">
         <v>1.51083E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4167000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.7024359999999999E-3</v>
       </c>
@@ -1928,8 +2141,12 @@
       <c r="I52">
         <v>1.64598E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7726999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3.0085899999999998E-3</v>
       </c>
@@ -1957,8 +2174,12 @@
       <c r="I53">
         <v>1.8070599999999999E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1663000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3.3453850000000002E-3</v>
       </c>
@@ -1986,8 +2207,12 @@
       <c r="I54">
         <v>2.0031299999999998E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5975999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3.7060259999999999E-3</v>
       </c>
@@ -2015,8 +2240,12 @@
       <c r="I55">
         <v>2.23416E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0701000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4.0861539999999998E-3</v>
       </c>
@@ -2044,8 +2273,12 @@
       <c r="I56">
         <v>2.5001800000000001E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5865999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4.4902559999999998E-3</v>
       </c>
@@ -2073,8 +2306,12 @@
       <c r="I57">
         <v>2.80117E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1539000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4.9301279999999998E-3</v>
       </c>
@@ -2102,8 +2339,12 @@
       <c r="I58">
         <v>3.1371400000000001E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7768999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.417308E-3</v>
       </c>
@@ -2131,8 +2372,12 @@
       <c r="I59">
         <v>3.5080800000000002E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4512999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.9537180000000002E-3</v>
       </c>
@@ -2160,8 +2405,12 @@
       <c r="I60">
         <v>3.9140000000000001E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="2">
+        <f t="shared" si="0"/>
+        <v>8.176499999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6.5284619999999996E-3</v>
       </c>
@@ -2189,8 +2438,12 @@
       <c r="I61">
         <v>4.3548999999999997E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9587000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7.1228209999999997E-3</v>
       </c>
@@ -2218,8 +2471,12 @@
       <c r="I62">
         <v>4.8307799999999998E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7.7161540000000002E-3</v>
       </c>
@@ -2247,8 +2504,12 @@
       <c r="I63">
         <v>5.34163E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="2">
+        <f t="shared" si="0"/>
+        <v>10.751800000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8.2965379999999991E-3</v>
       </c>
@@ -2276,8 +2537,12 @@
       <c r="I64">
         <v>5.8874500000000003E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="2">
+        <f t="shared" si="0"/>
+        <v>11.7456</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8.8687179999999994E-3</v>
       </c>
@@ -2305,8 +2570,12 @@
       <c r="I65">
         <v>6.4682600000000007E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="2">
+        <f t="shared" si="0"/>
+        <v>12.7881</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9.4552560000000004E-3</v>
       </c>
@@ -2334,8 +2603,12 @@
       <c r="I66">
         <v>7.0840399999999998E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="2">
+        <f t="shared" si="0"/>
+        <v>13.9084</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9.9767950000000001E-3</v>
       </c>
@@ -2363,8 +2636,12 @@
       <c r="I67">
         <v>7.7348E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="2">
+        <f t="shared" ref="J67:J124" si="1">E67*1000</f>
+        <v>15.062000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.0828205E-2</v>
       </c>
@@ -2392,8 +2669,12 @@
       <c r="I68">
         <v>8.4205299999999997E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="2">
+        <f t="shared" si="1"/>
+        <v>16.271100000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.0438462000000001E-2</v>
       </c>
@@ -2421,8 +2702,12 @@
       <c r="I69">
         <v>9.1412400000000005E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="2">
+        <f t="shared" si="1"/>
+        <v>17.551299999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.2826538E-2</v>
       </c>
@@ -2450,8 +2735,12 @@
       <c r="I70">
         <v>9.8969299999999996E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="2">
+        <f t="shared" si="1"/>
+        <v>18.904399999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.4196795E-2</v>
       </c>
@@ -2479,8 +2768,12 @@
       <c r="I71">
         <v>0.106876</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="2">
+        <f t="shared" si="1"/>
+        <v>20.332699999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.5872051000000002E-2</v>
       </c>
@@ -2508,8 +2801,12 @@
       <c r="I72">
         <v>0.1151324</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="2">
+        <f t="shared" si="1"/>
+        <v>21.8383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.7882436000000002E-2</v>
       </c>
@@ -2537,8 +2834,12 @@
       <c r="I73">
         <v>0.1237386</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="2">
+        <f t="shared" si="1"/>
+        <v>23.423300000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.0249230999999999E-2</v>
       </c>
@@ -2566,8 +2867,12 @@
       <c r="I74">
         <v>0.13269449999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="2">
+        <f t="shared" si="1"/>
+        <v>25.133699999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.2985641000000001E-2</v>
       </c>
@@ -2595,8 +2900,12 @@
       <c r="I75">
         <v>0.14200019999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="2">
+        <f t="shared" si="1"/>
+        <v>26.942399999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.6098461999999999E-2</v>
       </c>
@@ -2624,8 +2933,12 @@
       <c r="I76">
         <v>0.1516557</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="2">
+        <f t="shared" si="1"/>
+        <v>29.114699999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.9589358999999999E-2</v>
       </c>
@@ -2653,8 +2966,12 @@
       <c r="I77">
         <v>0.1616609</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="2">
+        <f t="shared" si="1"/>
+        <v>31.639100000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3.3457691999999997E-2</v>
       </c>
@@ -2682,8 +2999,12 @@
       <c r="I78">
         <v>0.172016</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="2">
+        <f t="shared" si="1"/>
+        <v>34.641400000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3.7702692000000003E-2</v>
       </c>
@@ -2711,8 +3032,12 @@
       <c r="I79">
         <v>0.18272070000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="2">
+        <f t="shared" si="1"/>
+        <v>38.2196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.2323590000000001E-2</v>
       </c>
@@ -2740,8 +3065,12 @@
       <c r="I80">
         <v>0.19377530000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="2">
+        <f t="shared" si="1"/>
+        <v>42.4709</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.7321281999999999E-2</v>
       </c>
@@ -2769,8 +3098,12 @@
       <c r="I81">
         <v>0.20517959999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="2">
+        <f t="shared" si="1"/>
+        <v>47.4923</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5.2700769000000001E-2</v>
       </c>
@@ -2798,8 +3131,12 @@
       <c r="I82">
         <v>0.21693370000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="2">
+        <f t="shared" si="1"/>
+        <v>53.379899999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5.8474871999999997E-2</v>
       </c>
@@ -2827,8 +3164,12 @@
       <c r="I83">
         <v>0.2290375</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="2">
+        <f t="shared" si="1"/>
+        <v>60.230199999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6.4666666999999997E-2</v>
       </c>
@@ -2856,8 +3197,12 @@
       <c r="I84">
         <v>0.24149109999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="2">
+        <f t="shared" si="1"/>
+        <v>67.781599999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7.1312563999999995E-2</v>
       </c>
@@ -2885,8 +3230,12 @@
       <c r="I85">
         <v>0.25429449999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="2">
+        <f t="shared" si="1"/>
+        <v>75.67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>7.8464102999999993E-2</v>
       </c>
@@ -2914,8 +3263,12 @@
       <c r="I86">
         <v>0.26744770000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="2">
+        <f t="shared" si="1"/>
+        <v>83.908500000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8.6189103000000003E-2</v>
       </c>
@@ -2943,8 +3296,12 @@
       <c r="I87">
         <v>0.28095059999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="2">
+        <f t="shared" si="1"/>
+        <v>92.49730000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9.4572307999999994E-2</v>
       </c>
@@ -2972,8 +3329,12 @@
       <c r="I88">
         <v>0.29480319999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="2">
+        <f t="shared" si="1"/>
+        <v>101.4362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.103714744</v>
       </c>
@@ -3001,8 +3362,12 @@
       <c r="I89">
         <v>0.30900569999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="2">
+        <f t="shared" si="1"/>
+        <v>110.72540000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.11373346199999999</v>
       </c>
@@ -3030,8 +3395,12 @@
       <c r="I90">
         <v>0.32355790000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="2">
+        <f t="shared" si="1"/>
+        <v>120.36499999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.12475974400000001</v>
       </c>
@@ -3059,8 +3428,12 @@
       <c r="I91">
         <v>0.33845989999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="2">
+        <f t="shared" si="1"/>
+        <v>130.35499999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.13693730800000001</v>
       </c>
@@ -3088,8 +3461,12 @@
       <c r="I92">
         <v>0.35371160000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="2">
+        <f t="shared" si="1"/>
+        <v>140.6953</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.15042012799999999</v>
       </c>
@@ -3117,8 +3494,12 @@
       <c r="I93">
         <v>0.36931310000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="2">
+        <f t="shared" si="1"/>
+        <v>151.38550000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.16537012800000001</v>
       </c>
@@ -3146,8 +3527,12 @@
       <c r="I94">
         <v>0.38526440000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="2">
+        <f t="shared" si="1"/>
+        <v>162.42690000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.18195397399999999</v>
       </c>
@@ -3175,8 +3560,12 @@
       <c r="I95">
         <v>0.40156550000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="2">
+        <f t="shared" si="1"/>
+        <v>173.81810000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.200340769</v>
       </c>
@@ -3204,8 +3593,12 @@
       <c r="I96">
         <v>0.41821629999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="2">
+        <f t="shared" si="1"/>
+        <v>185.55969999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.22069859</v>
       </c>
@@ -3233,8 +3626,12 @@
       <c r="I97">
         <v>0.43521690000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="2">
+        <f t="shared" si="1"/>
+        <v>197.65129999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.24319243600000001</v>
       </c>
@@ -3262,8 +3659,12 @@
       <c r="I98">
         <v>0.4525672</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="2">
+        <f t="shared" si="1"/>
+        <v>210.0926</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.26798153800000002</v>
       </c>
@@ -3291,8 +3692,12 @@
       <c r="I99">
         <v>0.4702673</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="2">
+        <f t="shared" si="1"/>
+        <v>222.88310000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.29521782099999999</v>
       </c>
@@ -3320,8 +3725,12 @@
       <c r="I100">
         <v>0.48831720000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="2">
+        <f t="shared" si="1"/>
+        <v>236.02549999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.325044359</v>
       </c>
@@ -3349,8 +3758,12 @@
       <c r="I101">
         <v>0.50671690000000003</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="2">
+        <f t="shared" si="1"/>
+        <v>249.51690000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.357593718</v>
       </c>
@@ -3378,8 +3791,12 @@
       <c r="I102">
         <v>0.52546630000000005</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="2">
+        <f t="shared" si="1"/>
+        <v>263.35730000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0.392987692</v>
       </c>
@@ -3407,8 +3824,12 @@
       <c r="I103">
         <v>0.54456539999999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="2">
+        <f t="shared" si="1"/>
+        <v>277.5478</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0.43133692299999998</v>
       </c>
@@ -3436,8 +3857,12 @@
       <c r="I104">
         <v>0.56401440000000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="2">
+        <f t="shared" si="1"/>
+        <v>292.08190000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0.47274012799999998</v>
       </c>
@@ -3465,8 +3890,12 @@
       <c r="I105">
         <v>0.58381309999999997</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="2">
+        <f t="shared" si="1"/>
+        <v>306.97340000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0.51728487199999995</v>
       </c>
@@ -3494,8 +3923,12 @@
       <c r="I106">
         <v>0.60396159999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="2">
+        <f t="shared" si="1"/>
+        <v>322.21190000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0.56504692300000003</v>
       </c>
@@ -3523,8 +3956,12 @@
       <c r="I107">
         <v>0.62445980000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="2">
+        <f t="shared" si="1"/>
+        <v>337.78540000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0.61609051299999995</v>
       </c>
@@ -3552,8 +3989,12 @@
       <c r="I108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="2">
+        <f t="shared" si="1"/>
+        <v>353.72190000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0.67046974400000003</v>
       </c>
@@ -3578,8 +4019,12 @@
       <c r="H109">
         <v>0.54315709999999995</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="2">
+        <f t="shared" si="1"/>
+        <v>369.99299999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.72822833300000001</v>
       </c>
@@ -3604,8 +4049,12 @@
       <c r="H110">
         <v>0.56413720000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="2">
+        <f t="shared" si="1"/>
+        <v>386.6712</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.78940089700000005</v>
       </c>
@@ -3630,8 +4079,12 @@
       <c r="H111">
         <v>0.58560950000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="2">
+        <f t="shared" si="1"/>
+        <v>403.69139999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.85401410300000002</v>
       </c>
@@ -3656,8 +4109,12 @@
       <c r="H112">
         <v>0.60757879999999997</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J112" s="2">
+        <f t="shared" si="1"/>
+        <v>420.9914</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.92208743599999998</v>
       </c>
@@ -3682,8 +4139,12 @@
       <c r="H113">
         <v>0.63005</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J113" s="2">
+        <f t="shared" si="1"/>
+        <v>438.50479999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.99363435899999997</v>
       </c>
@@ -3708,8 +4169,12 @@
       <c r="H114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J114" s="2">
+        <f t="shared" si="1"/>
+        <v>456.69290000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3731,8 +4196,12 @@
       <c r="G115">
         <v>0.4384285</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J115" s="2">
+        <f t="shared" si="1"/>
+        <v>475.62579999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>0.78627579999999997</v>
       </c>
@@ -3751,8 +4220,12 @@
       <c r="G116">
         <v>0.45589930000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J116" s="2">
+        <f t="shared" si="1"/>
+        <v>494.97489999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>0.8352427</v>
       </c>
@@ -3771,8 +4244,12 @@
       <c r="G117">
         <v>0.47370040000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J117" s="2">
+        <f t="shared" si="1"/>
+        <v>512.43780000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>0.88595840000000003</v>
       </c>
@@ -3791,8 +4268,12 @@
       <c r="G118">
         <v>0.49183189999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J118" s="2">
+        <f t="shared" si="1"/>
+        <v>530.61220000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>0.93842369999999997</v>
       </c>
@@ -3811,8 +4292,12 @@
       <c r="G119">
         <v>0.51029369999999996</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J119" s="2">
+        <f t="shared" si="1"/>
+        <v>543.47829999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>0.4846336</v>
       </c>
@@ -3825,8 +4310,12 @@
       <c r="G120">
         <v>0.5290859</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J120" s="2">
+        <f t="shared" si="1"/>
+        <v>571.42859999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>0.5</v>
       </c>
@@ -3839,8 +4328,12 @@
       <c r="G121">
         <v>0.54820840000000004</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J121" s="2">
+        <f t="shared" si="1"/>
+        <v>555.55560000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>0.52293579999999995</v>
       </c>
@@ -3853,8 +4346,12 @@
       <c r="G122">
         <v>0.56766139999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J122" s="2">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>0.53846150000000004</v>
       </c>
@@ -3867,8 +4364,12 @@
       <c r="G123">
         <v>0.58744459999999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J123" s="2">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>0.54166669999999995</v>
       </c>
@@ -3881,8 +4382,12 @@
       <c r="G124">
         <v>0.6075583</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J124" s="2">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>0.54545449999999995</v>
       </c>
@@ -3890,7 +4395,7 @@
         <v>0.53315749999999995</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>0.6</v>
       </c>
@@ -3898,7 +4403,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>0.5</v>
       </c>
@@ -3906,7 +4411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>1</v>
       </c>

--- a/MyPyliferisk/TablesMortalite.xlsx
+++ b/MyPyliferisk/TablesMortalite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Dropbox\Programming\myPGG1\MyPyliferisk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8ADF29-FE04-4AC6-8E6D-218A816A2B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEF3CBA-6429-4E51-9BDE-C40FE7037EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5145" yWindow="2805" windowWidth="28770" windowHeight="18030" xr2:uid="{8C9A21CF-0D1A-4FD7-8F27-BF695E4B2878}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>EKF95</t>
   </si>
@@ -61,17 +61,11 @@
   <si>
     <t>GKM95</t>
   </si>
-  <si>
-    <t>EKM95000</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,10 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,19 +412,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539BC84E-D534-4BB7-B55A-54B8A527FA01}">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -459,11 +451,8 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -491,12 +480,8 @@
       <c r="I2" s="1">
         <v>15</v>
       </c>
-      <c r="J2" s="2">
-        <f>E2*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6.8435900000000001E-3</v>
       </c>
@@ -524,12 +509,8 @@
       <c r="I3">
         <v>1.5785E-3</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J66" si="0">E3*1000</f>
-        <v>3.0963000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.1666699999999995E-4</v>
       </c>
@@ -557,12 +538,8 @@
       <c r="I4">
         <v>1.5950999999999999E-3</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.7474399999999998E-4</v>
       </c>
@@ -590,12 +567,8 @@
       <c r="I5">
         <v>1.6006E-3</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.80510000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.4051300000000002E-4</v>
       </c>
@@ -623,12 +596,8 @@
       <c r="I6">
         <v>1.5950000000000001E-3</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.71929999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.1461500000000001E-4</v>
       </c>
@@ -656,12 +625,8 @@
       <c r="I7">
         <v>1.5785E-3</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.6431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.9833300000000001E-4</v>
       </c>
@@ -689,12 +654,8 @@
       <c r="I8">
         <v>1.5502999999999999E-3</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.57700000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.93333E-4</v>
       </c>
@@ -722,12 +683,8 @@
       <c r="I9">
         <v>1.5093999999999999E-3</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.52170000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.01538E-4</v>
       </c>
@@ -755,12 +712,8 @@
       <c r="I10">
         <v>1.4643E-3</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.47789999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.2499999999999998E-4</v>
       </c>
@@ -788,12 +741,8 @@
       <c r="I11">
         <v>1.4238E-3</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.44619999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.6525599999999999E-4</v>
       </c>
@@ -821,12 +770,8 @@
       <c r="I12">
         <v>1.3879999999999999E-3</v>
       </c>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.4274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.2294899999999998E-4</v>
       </c>
@@ -854,12 +799,8 @@
       <c r="I13">
         <v>1.3573999999999999E-3</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.42210000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5.9679500000000001E-4</v>
       </c>
@@ -887,12 +828,8 @@
       <c r="I14">
         <v>1.3324999999999999E-3</v>
       </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.43080000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6.8397399999999995E-4</v>
       </c>
@@ -920,12 +857,8 @@
       <c r="I15">
         <v>1.3136999999999999E-3</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.45319999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.8025600000000001E-4</v>
       </c>
@@ -953,12 +886,8 @@
       <c r="I16">
         <v>1.3018000000000001E-3</v>
       </c>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49620000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8.7935900000000002E-4</v>
       </c>
@@ -986,12 +915,8 @@
       <c r="I17">
         <v>1.2968000000000001E-3</v>
       </c>
-      <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.59109999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9.7397399999999996E-4</v>
       </c>
@@ -1019,12 +944,8 @@
       <c r="I18">
         <v>1.2995000000000001E-3</v>
       </c>
-      <c r="J18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.77150000000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.05641E-3</v>
       </c>
@@ -1052,12 +973,8 @@
       <c r="I19">
         <v>1.3104E-3</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.118974E-3</v>
       </c>
@@ -1085,12 +1002,8 @@
       <c r="I20">
         <v>1.3299E-3</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4748999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.1553850000000001E-3</v>
       </c>
@@ -1118,12 +1031,8 @@
       <c r="I21">
         <v>1.3586E-3</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="0"/>
-        <v>1.8875999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.1614100000000001E-3</v>
       </c>
@@ -1151,12 +1060,8 @@
       <c r="I22">
         <v>1.397E-3</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="0"/>
-        <v>2.177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.13641E-3</v>
       </c>
@@ -1184,12 +1089,8 @@
       <c r="I23">
         <v>1.4453999999999999E-3</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2539000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.0839739999999999E-3</v>
       </c>
@@ -1217,12 +1118,8 @@
       <c r="I24">
         <v>1.5045E-3</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1743999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.0114099999999999E-3</v>
       </c>
@@ -1250,12 +1147,8 @@
       <c r="I25">
         <v>1.5754E-3</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0281000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9.2833300000000004E-4</v>
       </c>
@@ -1283,12 +1176,8 @@
       <c r="I26">
         <v>1.6590999999999999E-3</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="0"/>
-        <v>1.8632</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8.4435900000000004E-4</v>
       </c>
@@ -1316,12 +1205,8 @@
       <c r="I27">
         <v>1.7566000000000001E-3</v>
       </c>
-      <c r="J27" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7.6730799999999997E-4</v>
       </c>
@@ -1349,12 +1234,8 @@
       <c r="I28">
         <v>1.8694E-3</v>
       </c>
-      <c r="J28" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5933999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7.0230800000000001E-4</v>
       </c>
@@ -1382,12 +1263,8 @@
       <c r="I29">
         <v>1.9983000000000002E-3</v>
       </c>
-      <c r="J29" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4966000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.5179500000000004E-4</v>
       </c>
@@ -1415,12 +1292,8 @@
       <c r="I30">
         <v>2.1445000000000001E-3</v>
       </c>
-      <c r="J30" s="2">
-        <f t="shared" si="0"/>
-        <v>1.421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.1653800000000003E-4</v>
       </c>
@@ -1448,12 +1321,8 @@
       <c r="I31">
         <v>2.3096000000000002E-3</v>
       </c>
-      <c r="J31" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3651</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.9564100000000005E-4</v>
       </c>
@@ -1481,12 +1350,8 @@
       <c r="I32">
         <v>2.4970000000000001E-3</v>
       </c>
-      <c r="J32" s="2">
-        <f t="shared" si="0"/>
-        <v>1.327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.8756399999999995E-4</v>
       </c>
@@ -1514,12 +1379,8 @@
       <c r="I33">
         <v>2.7106999999999999E-3</v>
       </c>
-      <c r="J33" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3049999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.9153799999999996E-4</v>
       </c>
@@ -1547,12 +1408,8 @@
       <c r="I34">
         <v>2.9545000000000001E-3</v>
       </c>
-      <c r="J34" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2973999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.0782100000000003E-4</v>
       </c>
@@ -1580,12 +1437,8 @@
       <c r="I35">
         <v>3.2325000000000001E-3</v>
       </c>
-      <c r="J35" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3024</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6.3756399999999997E-4</v>
       </c>
@@ -1613,12 +1466,8 @@
       <c r="I36">
         <v>3.5482000000000001E-3</v>
       </c>
-      <c r="J36" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3178000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6.8128199999999996E-4</v>
       </c>
@@ -1646,12 +1495,8 @@
       <c r="I37">
         <v>3.9056999999999998E-3</v>
       </c>
-      <c r="J37" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3420999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.37308E-4</v>
       </c>
@@ -1679,12 +1524,8 @@
       <c r="I38">
         <v>4.3087000000000004E-3</v>
       </c>
-      <c r="J38" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3734999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8.0192299999999996E-4</v>
       </c>
@@ -1712,12 +1553,8 @@
       <c r="I39">
         <v>4.7606000000000002E-3</v>
       </c>
-      <c r="J39" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4105999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8.7140999999999998E-4</v>
       </c>
@@ -1745,12 +1582,8 @@
       <c r="I40">
         <v>5.2655000000000002E-3</v>
       </c>
-      <c r="J40" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4694</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9.4371799999999997E-4</v>
       </c>
@@ -1778,12 +1611,8 @@
       <c r="I41">
         <v>5.8269000000000003E-3</v>
       </c>
-      <c r="J41" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5394000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.020256E-3</v>
       </c>
@@ -1811,12 +1640,8 @@
       <c r="I42">
         <v>6.4473999999999998E-3</v>
       </c>
-      <c r="J42" s="2">
-        <f t="shared" si="0"/>
-        <v>1.623</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.104872E-3</v>
       </c>
@@ -1844,12 +1669,8 @@
       <c r="I43">
         <v>7.1294000000000001E-3</v>
       </c>
-      <c r="J43" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.202949E-3</v>
       </c>
@@ -1877,12 +1698,8 @@
       <c r="I44">
         <v>7.8756E-3</v>
       </c>
-      <c r="J44" s="2">
-        <f t="shared" si="0"/>
-        <v>1.843</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.319359E-3</v>
       </c>
@@ -1910,12 +1727,8 @@
       <c r="I45">
         <v>8.6884000000000006E-3</v>
       </c>
-      <c r="J45" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9837000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.45641E-3</v>
       </c>
@@ -1943,12 +1756,8 @@
       <c r="I46">
         <v>9.5703999999999997E-3</v>
       </c>
-      <c r="J46" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1484000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.613462E-3</v>
       </c>
@@ -1976,12 +1785,8 @@
       <c r="I47">
         <v>1.05241E-2</v>
       </c>
-      <c r="J47" s="2">
-        <f t="shared" si="0"/>
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.788333E-3</v>
       </c>
@@ -2009,12 +1814,8 @@
       <c r="I48">
         <v>1.1552099999999999E-2</v>
       </c>
-      <c r="J48" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5612999999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.98E-3</v>
       </c>
@@ -2042,12 +1843,8 @@
       <c r="I49">
         <v>1.2657099999999999E-2</v>
       </c>
-      <c r="J49" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8134000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.1921789999999998E-3</v>
       </c>
@@ -2075,12 +1872,8 @@
       <c r="I50">
         <v>1.38417E-2</v>
       </c>
-      <c r="J50" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0975999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.430897E-3</v>
       </c>
@@ -2108,12 +1901,8 @@
       <c r="I51">
         <v>1.51083E-2</v>
       </c>
-      <c r="J51" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4167000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.7024359999999999E-3</v>
       </c>
@@ -2141,12 +1930,8 @@
       <c r="I52">
         <v>1.64598E-2</v>
       </c>
-      <c r="J52" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7726999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3.0085899999999998E-3</v>
       </c>
@@ -2174,12 +1959,8 @@
       <c r="I53">
         <v>1.8070599999999999E-2</v>
       </c>
-      <c r="J53" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1663000000000006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3.3453850000000002E-3</v>
       </c>
@@ -2207,12 +1988,8 @@
       <c r="I54">
         <v>2.0031299999999998E-2</v>
       </c>
-      <c r="J54" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5975999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3.7060259999999999E-3</v>
       </c>
@@ -2240,12 +2017,8 @@
       <c r="I55">
         <v>2.23416E-2</v>
       </c>
-      <c r="J55" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0701000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4.0861539999999998E-3</v>
       </c>
@@ -2273,12 +2046,8 @@
       <c r="I56">
         <v>2.5001800000000001E-2</v>
       </c>
-      <c r="J56" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5865999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4.4902559999999998E-3</v>
       </c>
@@ -2306,12 +2075,8 @@
       <c r="I57">
         <v>2.80117E-2</v>
       </c>
-      <c r="J57" s="2">
-        <f t="shared" si="0"/>
-        <v>6.1539000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4.9301279999999998E-3</v>
       </c>
@@ -2339,12 +2104,8 @@
       <c r="I58">
         <v>3.1371400000000001E-2</v>
       </c>
-      <c r="J58" s="2">
-        <f t="shared" si="0"/>
-        <v>6.7768999999999995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.417308E-3</v>
       </c>
@@ -2372,12 +2133,8 @@
       <c r="I59">
         <v>3.5080800000000002E-2</v>
       </c>
-      <c r="J59" s="2">
-        <f t="shared" si="0"/>
-        <v>7.4512999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.9537180000000002E-3</v>
       </c>
@@ -2405,12 +2162,8 @@
       <c r="I60">
         <v>3.9140000000000001E-2</v>
       </c>
-      <c r="J60" s="2">
-        <f t="shared" si="0"/>
-        <v>8.176499999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6.5284619999999996E-3</v>
       </c>
@@ -2438,12 +2191,8 @@
       <c r="I61">
         <v>4.3548999999999997E-2</v>
       </c>
-      <c r="J61" s="2">
-        <f t="shared" si="0"/>
-        <v>8.9587000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7.1228209999999997E-3</v>
       </c>
@@ -2471,12 +2220,8 @@
       <c r="I62">
         <v>4.8307799999999998E-2</v>
       </c>
-      <c r="J62" s="2">
-        <f t="shared" si="0"/>
-        <v>9.8148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7.7161540000000002E-3</v>
       </c>
@@ -2504,12 +2249,8 @@
       <c r="I63">
         <v>5.34163E-2</v>
       </c>
-      <c r="J63" s="2">
-        <f t="shared" si="0"/>
-        <v>10.751800000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8.2965379999999991E-3</v>
       </c>
@@ -2537,12 +2278,8 @@
       <c r="I64">
         <v>5.8874500000000003E-2</v>
       </c>
-      <c r="J64" s="2">
-        <f t="shared" si="0"/>
-        <v>11.7456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8.8687179999999994E-3</v>
       </c>
@@ -2570,12 +2307,8 @@
       <c r="I65">
         <v>6.4682600000000007E-2</v>
       </c>
-      <c r="J65" s="2">
-        <f t="shared" si="0"/>
-        <v>12.7881</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9.4552560000000004E-3</v>
       </c>
@@ -2603,12 +2336,8 @@
       <c r="I66">
         <v>7.0840399999999998E-2</v>
       </c>
-      <c r="J66" s="2">
-        <f t="shared" si="0"/>
-        <v>13.9084</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9.9767950000000001E-3</v>
       </c>
@@ -2636,12 +2365,8 @@
       <c r="I67">
         <v>7.7348E-2</v>
       </c>
-      <c r="J67" s="2">
-        <f t="shared" ref="J67:J124" si="1">E67*1000</f>
-        <v>15.062000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.0828205E-2</v>
       </c>
@@ -2669,12 +2394,8 @@
       <c r="I68">
         <v>8.4205299999999997E-2</v>
       </c>
-      <c r="J68" s="2">
-        <f t="shared" si="1"/>
-        <v>16.271100000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.0438462000000001E-2</v>
       </c>
@@ -2702,12 +2423,8 @@
       <c r="I69">
         <v>9.1412400000000005E-2</v>
       </c>
-      <c r="J69" s="2">
-        <f t="shared" si="1"/>
-        <v>17.551299999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.2826538E-2</v>
       </c>
@@ -2735,12 +2452,8 @@
       <c r="I70">
         <v>9.8969299999999996E-2</v>
       </c>
-      <c r="J70" s="2">
-        <f t="shared" si="1"/>
-        <v>18.904399999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.4196795E-2</v>
       </c>
@@ -2768,12 +2481,8 @@
       <c r="I71">
         <v>0.106876</v>
       </c>
-      <c r="J71" s="2">
-        <f t="shared" si="1"/>
-        <v>20.332699999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.5872051000000002E-2</v>
       </c>
@@ -2801,12 +2510,8 @@
       <c r="I72">
         <v>0.1151324</v>
       </c>
-      <c r="J72" s="2">
-        <f t="shared" si="1"/>
-        <v>21.8383</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.7882436000000002E-2</v>
       </c>
@@ -2834,12 +2539,8 @@
       <c r="I73">
         <v>0.1237386</v>
       </c>
-      <c r="J73" s="2">
-        <f t="shared" si="1"/>
-        <v>23.423300000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.0249230999999999E-2</v>
       </c>
@@ -2867,12 +2568,8 @@
       <c r="I74">
         <v>0.13269449999999999</v>
       </c>
-      <c r="J74" s="2">
-        <f t="shared" si="1"/>
-        <v>25.133699999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.2985641000000001E-2</v>
       </c>
@@ -2900,12 +2597,8 @@
       <c r="I75">
         <v>0.14200019999999999</v>
       </c>
-      <c r="J75" s="2">
-        <f t="shared" si="1"/>
-        <v>26.942399999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.6098461999999999E-2</v>
       </c>
@@ -2933,12 +2626,8 @@
       <c r="I76">
         <v>0.1516557</v>
       </c>
-      <c r="J76" s="2">
-        <f t="shared" si="1"/>
-        <v>29.114699999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.9589358999999999E-2</v>
       </c>
@@ -2966,12 +2655,8 @@
       <c r="I77">
         <v>0.1616609</v>
       </c>
-      <c r="J77" s="2">
-        <f t="shared" si="1"/>
-        <v>31.639100000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3.3457691999999997E-2</v>
       </c>
@@ -2999,12 +2684,8 @@
       <c r="I78">
         <v>0.172016</v>
       </c>
-      <c r="J78" s="2">
-        <f t="shared" si="1"/>
-        <v>34.641400000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3.7702692000000003E-2</v>
       </c>
@@ -3032,12 +2713,8 @@
       <c r="I79">
         <v>0.18272070000000001</v>
       </c>
-      <c r="J79" s="2">
-        <f t="shared" si="1"/>
-        <v>38.2196</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.2323590000000001E-2</v>
       </c>
@@ -3065,12 +2742,8 @@
       <c r="I80">
         <v>0.19377530000000001</v>
       </c>
-      <c r="J80" s="2">
-        <f t="shared" si="1"/>
-        <v>42.4709</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.7321281999999999E-2</v>
       </c>
@@ -3098,12 +2771,8 @@
       <c r="I81">
         <v>0.20517959999999999</v>
       </c>
-      <c r="J81" s="2">
-        <f t="shared" si="1"/>
-        <v>47.4923</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5.2700769000000001E-2</v>
       </c>
@@ -3131,12 +2800,8 @@
       <c r="I82">
         <v>0.21693370000000001</v>
       </c>
-      <c r="J82" s="2">
-        <f t="shared" si="1"/>
-        <v>53.379899999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5.8474871999999997E-2</v>
       </c>
@@ -3164,12 +2829,8 @@
       <c r="I83">
         <v>0.2290375</v>
       </c>
-      <c r="J83" s="2">
-        <f t="shared" si="1"/>
-        <v>60.230199999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6.4666666999999997E-2</v>
       </c>
@@ -3197,12 +2858,8 @@
       <c r="I84">
         <v>0.24149109999999999</v>
       </c>
-      <c r="J84" s="2">
-        <f t="shared" si="1"/>
-        <v>67.781599999999997</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7.1312563999999995E-2</v>
       </c>
@@ -3230,12 +2887,8 @@
       <c r="I85">
         <v>0.25429449999999998</v>
       </c>
-      <c r="J85" s="2">
-        <f t="shared" si="1"/>
-        <v>75.67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>7.8464102999999993E-2</v>
       </c>
@@ -3263,12 +2916,8 @@
       <c r="I86">
         <v>0.26744770000000001</v>
       </c>
-      <c r="J86" s="2">
-        <f t="shared" si="1"/>
-        <v>83.908500000000004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8.6189103000000003E-2</v>
       </c>
@@ -3296,12 +2945,8 @@
       <c r="I87">
         <v>0.28095059999999999</v>
       </c>
-      <c r="J87" s="2">
-        <f t="shared" si="1"/>
-        <v>92.49730000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9.4572307999999994E-2</v>
       </c>
@@ -3329,12 +2974,8 @@
       <c r="I88">
         <v>0.29480319999999999</v>
       </c>
-      <c r="J88" s="2">
-        <f t="shared" si="1"/>
-        <v>101.4362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.103714744</v>
       </c>
@@ -3362,12 +3003,8 @@
       <c r="I89">
         <v>0.30900569999999999</v>
       </c>
-      <c r="J89" s="2">
-        <f t="shared" si="1"/>
-        <v>110.72540000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.11373346199999999</v>
       </c>
@@ -3395,12 +3032,8 @@
       <c r="I90">
         <v>0.32355790000000001</v>
       </c>
-      <c r="J90" s="2">
-        <f t="shared" si="1"/>
-        <v>120.36499999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.12475974400000001</v>
       </c>
@@ -3428,12 +3061,8 @@
       <c r="I91">
         <v>0.33845989999999998</v>
       </c>
-      <c r="J91" s="2">
-        <f t="shared" si="1"/>
-        <v>130.35499999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.13693730800000001</v>
       </c>
@@ -3461,12 +3090,8 @@
       <c r="I92">
         <v>0.35371160000000001</v>
       </c>
-      <c r="J92" s="2">
-        <f t="shared" si="1"/>
-        <v>140.6953</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.15042012799999999</v>
       </c>
@@ -3494,12 +3119,8 @@
       <c r="I93">
         <v>0.36931310000000001</v>
       </c>
-      <c r="J93" s="2">
-        <f t="shared" si="1"/>
-        <v>151.38550000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.16537012800000001</v>
       </c>
@@ -3527,12 +3148,8 @@
       <c r="I94">
         <v>0.38526440000000001</v>
       </c>
-      <c r="J94" s="2">
-        <f t="shared" si="1"/>
-        <v>162.42690000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.18195397399999999</v>
       </c>
@@ -3560,12 +3177,8 @@
       <c r="I95">
         <v>0.40156550000000002</v>
       </c>
-      <c r="J95" s="2">
-        <f t="shared" si="1"/>
-        <v>173.81810000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.200340769</v>
       </c>
@@ -3593,12 +3206,8 @@
       <c r="I96">
         <v>0.41821629999999999</v>
       </c>
-      <c r="J96" s="2">
-        <f t="shared" si="1"/>
-        <v>185.55969999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.22069859</v>
       </c>
@@ -3626,12 +3235,8 @@
       <c r="I97">
         <v>0.43521690000000002</v>
       </c>
-      <c r="J97" s="2">
-        <f t="shared" si="1"/>
-        <v>197.65129999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.24319243600000001</v>
       </c>
@@ -3659,12 +3264,8 @@
       <c r="I98">
         <v>0.4525672</v>
       </c>
-      <c r="J98" s="2">
-        <f t="shared" si="1"/>
-        <v>210.0926</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.26798153800000002</v>
       </c>
@@ -3692,12 +3293,8 @@
       <c r="I99">
         <v>0.4702673</v>
       </c>
-      <c r="J99" s="2">
-        <f t="shared" si="1"/>
-        <v>222.88310000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.29521782099999999</v>
       </c>
@@ -3725,12 +3322,8 @@
       <c r="I100">
         <v>0.48831720000000001</v>
       </c>
-      <c r="J100" s="2">
-        <f t="shared" si="1"/>
-        <v>236.02549999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.325044359</v>
       </c>
@@ -3758,12 +3351,8 @@
       <c r="I101">
         <v>0.50671690000000003</v>
       </c>
-      <c r="J101" s="2">
-        <f t="shared" si="1"/>
-        <v>249.51690000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.357593718</v>
       </c>
@@ -3791,12 +3380,8 @@
       <c r="I102">
         <v>0.52546630000000005</v>
       </c>
-      <c r="J102" s="2">
-        <f t="shared" si="1"/>
-        <v>263.35730000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0.392987692</v>
       </c>
@@ -3824,12 +3409,8 @@
       <c r="I103">
         <v>0.54456539999999998</v>
       </c>
-      <c r="J103" s="2">
-        <f t="shared" si="1"/>
-        <v>277.5478</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0.43133692299999998</v>
       </c>
@@ -3857,12 +3438,8 @@
       <c r="I104">
         <v>0.56401440000000003</v>
       </c>
-      <c r="J104" s="2">
-        <f t="shared" si="1"/>
-        <v>292.08190000000002</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0.47274012799999998</v>
       </c>
@@ -3890,12 +3467,8 @@
       <c r="I105">
         <v>0.58381309999999997</v>
       </c>
-      <c r="J105" s="2">
-        <f t="shared" si="1"/>
-        <v>306.97340000000003</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0.51728487199999995</v>
       </c>
@@ -3923,12 +3496,8 @@
       <c r="I106">
         <v>0.60396159999999999</v>
       </c>
-      <c r="J106" s="2">
-        <f t="shared" si="1"/>
-        <v>322.21190000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0.56504692300000003</v>
       </c>
@@ -3956,12 +3525,8 @@
       <c r="I107">
         <v>0.62445980000000001</v>
       </c>
-      <c r="J107" s="2">
-        <f t="shared" si="1"/>
-        <v>337.78540000000004</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0.61609051299999995</v>
       </c>
@@ -3989,12 +3554,8 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108" s="2">
-        <f t="shared" si="1"/>
-        <v>353.72190000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0.67046974400000003</v>
       </c>
@@ -4019,12 +3580,8 @@
       <c r="H109">
         <v>0.54315709999999995</v>
       </c>
-      <c r="J109" s="2">
-        <f t="shared" si="1"/>
-        <v>369.99299999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.72822833300000001</v>
       </c>
@@ -4049,12 +3606,8 @@
       <c r="H110">
         <v>0.56413720000000001</v>
       </c>
-      <c r="J110" s="2">
-        <f t="shared" si="1"/>
-        <v>386.6712</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.78940089700000005</v>
       </c>
@@ -4079,12 +3632,8 @@
       <c r="H111">
         <v>0.58560950000000001</v>
       </c>
-      <c r="J111" s="2">
-        <f t="shared" si="1"/>
-        <v>403.69139999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.85401410300000002</v>
       </c>
@@ -4109,12 +3658,8 @@
       <c r="H112">
         <v>0.60757879999999997</v>
       </c>
-      <c r="J112" s="2">
-        <f t="shared" si="1"/>
-        <v>420.9914</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.92208743599999998</v>
       </c>
@@ -4139,12 +3684,8 @@
       <c r="H113">
         <v>0.63005</v>
       </c>
-      <c r="J113" s="2">
-        <f t="shared" si="1"/>
-        <v>438.50479999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.99363435899999997</v>
       </c>
@@ -4169,12 +3710,8 @@
       <c r="H114">
         <v>1</v>
       </c>
-      <c r="J114" s="2">
-        <f t="shared" si="1"/>
-        <v>456.69290000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4196,12 +3733,8 @@
       <c r="G115">
         <v>0.4384285</v>
       </c>
-      <c r="J115" s="2">
-        <f t="shared" si="1"/>
-        <v>475.62579999999997</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>0.78627579999999997</v>
       </c>
@@ -4220,12 +3753,8 @@
       <c r="G116">
         <v>0.45589930000000001</v>
       </c>
-      <c r="J116" s="2">
-        <f t="shared" si="1"/>
-        <v>494.97489999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>0.8352427</v>
       </c>
@@ -4244,12 +3773,8 @@
       <c r="G117">
         <v>0.47370040000000002</v>
       </c>
-      <c r="J117" s="2">
-        <f t="shared" si="1"/>
-        <v>512.43780000000004</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>0.88595840000000003</v>
       </c>
@@ -4268,12 +3793,8 @@
       <c r="G118">
         <v>0.49183189999999999</v>
       </c>
-      <c r="J118" s="2">
-        <f t="shared" si="1"/>
-        <v>530.61220000000003</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>0.93842369999999997</v>
       </c>
@@ -4292,12 +3813,8 @@
       <c r="G119">
         <v>0.51029369999999996</v>
       </c>
-      <c r="J119" s="2">
-        <f t="shared" si="1"/>
-        <v>543.47829999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>0.4846336</v>
       </c>
@@ -4310,12 +3827,8 @@
       <c r="G120">
         <v>0.5290859</v>
       </c>
-      <c r="J120" s="2">
-        <f t="shared" si="1"/>
-        <v>571.42859999999996</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>0.5</v>
       </c>
@@ -4328,12 +3841,8 @@
       <c r="G121">
         <v>0.54820840000000004</v>
       </c>
-      <c r="J121" s="2">
-        <f t="shared" si="1"/>
-        <v>555.55560000000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>0.52293579999999995</v>
       </c>
@@ -4346,12 +3855,8 @@
       <c r="G122">
         <v>0.56766139999999998</v>
       </c>
-      <c r="J122" s="2">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>0.53846150000000004</v>
       </c>
@@ -4364,12 +3869,8 @@
       <c r="G123">
         <v>0.58744459999999998</v>
       </c>
-      <c r="J123" s="2">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>0.54166669999999995</v>
       </c>
@@ -4382,12 +3883,8 @@
       <c r="G124">
         <v>0.6075583</v>
       </c>
-      <c r="J124" s="2">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>0.54545449999999995</v>
       </c>
@@ -4395,7 +3892,7 @@
         <v>0.53315749999999995</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>0.6</v>
       </c>
@@ -4403,7 +3900,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>0.5</v>
       </c>
@@ -4411,7 +3908,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>1</v>
       </c>

--- a/MyPyliferisk/TablesMortalite.xlsx
+++ b/MyPyliferisk/TablesMortalite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Dropbox\Programming\myPGG1\MyPyliferisk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEF3CBA-6429-4E51-9BDE-C40FE7037EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED68EF5-3F71-4FF2-B641-85D77CC7D69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="2805" windowWidth="28770" windowHeight="18030" xr2:uid="{8C9A21CF-0D1A-4FD7-8F27-BF695E4B2878}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8C9A21CF-0D1A-4FD7-8F27-BF695E4B2878}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539BC84E-D534-4BB7-B55A-54B8A527FA01}">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="M122" sqref="M122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,6 +3580,9 @@
       <c r="H109">
         <v>0.54315709999999995</v>
       </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -3606,6 +3609,9 @@
       <c r="H110">
         <v>0.56413720000000001</v>
       </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -3632,6 +3638,9 @@
       <c r="H111">
         <v>0.58560950000000001</v>
       </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -3658,8 +3667,11 @@
       <c r="H112">
         <v>0.60757879999999997</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.92208743599999998</v>
       </c>
@@ -3684,8 +3696,11 @@
       <c r="H113">
         <v>0.63005</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.99363435899999997</v>
       </c>
@@ -3710,8 +3725,11 @@
       <c r="H114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3733,8 +3751,17 @@
       <c r="G115">
         <v>0.4384285</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
       <c r="B116">
         <v>0.78627579999999997</v>
       </c>
@@ -3753,8 +3780,17 @@
       <c r="G116">
         <v>0.45589930000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
       <c r="B117">
         <v>0.8352427</v>
       </c>
@@ -3773,8 +3809,17 @@
       <c r="G117">
         <v>0.47370040000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
       <c r="B118">
         <v>0.88595840000000003</v>
       </c>
@@ -3793,8 +3838,17 @@
       <c r="G118">
         <v>0.49183189999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
       <c r="B119">
         <v>0.93842369999999997</v>
       </c>
@@ -3813,8 +3867,23 @@
       <c r="G119">
         <v>0.51029369999999996</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
       <c r="D120">
         <v>0.4846336</v>
       </c>
@@ -3827,8 +3896,23 @@
       <c r="G120">
         <v>0.5290859</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
       <c r="D121">
         <v>0.5</v>
       </c>
@@ -3841,8 +3925,23 @@
       <c r="G121">
         <v>0.54820840000000004</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
       <c r="D122">
         <v>0.52293579999999995</v>
       </c>
@@ -3855,8 +3954,23 @@
       <c r="G122">
         <v>0.56766139999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
       <c r="D123">
         <v>0.53846150000000004</v>
       </c>
@@ -3869,8 +3983,23 @@
       <c r="G123">
         <v>0.58744459999999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
       <c r="D124">
         <v>0.54166669999999995</v>
       </c>
@@ -3883,36 +4012,184 @@
       <c r="G124">
         <v>0.6075583</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
       <c r="D125">
         <v>0.54545449999999995</v>
       </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
       <c r="F125">
         <v>0.53315749999999995</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
       <c r="D126">
         <v>0.6</v>
       </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
       <c r="F126">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
       <c r="D127">
         <v>0.5</v>
       </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
       <c r="F127">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
       <c r="D128">
         <v>1</v>
       </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
       <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
         <v>1</v>
       </c>
     </row>

--- a/MyPyliferisk/TablesMortalite.xlsx
+++ b/MyPyliferisk/TablesMortalite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Dropbox\Programming\myPGG1\MyPyliferisk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED68EF5-3F71-4FF2-B641-85D77CC7D69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E974C3C8-7C37-495C-906E-A99A6866D0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8C9A21CF-0D1A-4FD7-8F27-BF695E4B2878}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28770" windowHeight="18030" xr2:uid="{8C9A21CF-0D1A-4FD7-8F27-BF695E4B2878}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539BC84E-D534-4BB7-B55A-54B8A527FA01}">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="M122" sqref="M122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,9 +3580,6 @@
       <c r="H109">
         <v>0.54315709999999995</v>
       </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -3609,9 +3606,6 @@
       <c r="H110">
         <v>0.56413720000000001</v>
       </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -3638,9 +3632,6 @@
       <c r="H111">
         <v>0.58560950000000001</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -3667,11 +3658,8 @@
       <c r="H112">
         <v>0.60757879999999997</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.92208743599999998</v>
       </c>
@@ -3696,11 +3684,8 @@
       <c r="H113">
         <v>0.63005</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.99363435899999997</v>
       </c>
@@ -3725,11 +3710,8 @@
       <c r="H114">
         <v>1</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3751,17 +3733,8 @@
       <c r="G115">
         <v>0.4384285</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>0.78627579999999997</v>
       </c>
@@ -3780,17 +3753,8 @@
       <c r="G116">
         <v>0.45589930000000001</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>0.8352427</v>
       </c>
@@ -3809,17 +3773,8 @@
       <c r="G117">
         <v>0.47370040000000002</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>0.88595840000000003</v>
       </c>
@@ -3838,17 +3793,8 @@
       <c r="G118">
         <v>0.49183189999999999</v>
       </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>0.93842369999999997</v>
       </c>
@@ -3867,23 +3813,11 @@
       <c r="G119">
         <v>0.51029369999999996</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>1</v>
       </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
       <c r="D120">
         <v>0.4846336</v>
       </c>
@@ -3896,23 +3830,8 @@
       <c r="G120">
         <v>0.5290859</v>
       </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>0.5</v>
       </c>
@@ -3925,23 +3844,8 @@
       <c r="G121">
         <v>0.54820840000000004</v>
       </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>0.52293579999999995</v>
       </c>
@@ -3954,23 +3858,8 @@
       <c r="G122">
         <v>0.56766139999999998</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>0.53846150000000004</v>
       </c>
@@ -3983,23 +3872,8 @@
       <c r="G123">
         <v>0.58744459999999998</v>
       </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>0.54166669999999995</v>
       </c>
@@ -4012,184 +3886,39 @@
       <c r="G124">
         <v>0.6075583</v>
       </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>0.54545449999999995</v>
       </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
       <c r="F125">
         <v>0.53315749999999995</v>
       </c>
       <c r="G125">
         <v>1</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>0.6</v>
       </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
       <c r="F126">
         <v>0.6</v>
       </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>0.5</v>
       </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
       <c r="F127">
         <v>0.5</v>
       </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
       <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-      <c r="I130">
         <v>1</v>
       </c>
     </row>
